--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/30/Output_18_33.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/30/Output_18_33.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>56591.26856728151</v>
+        <v>11261662.44488901</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>56591.26856728151</v>
+        <v>11261662.44488901</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>7132.605573962082</v>
+        <v>959328.3096525419</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7132.605573962082</v>
+        <v>959328.3096525419</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1419304072.136525</v>
+        <v>57805949.61088126</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>12077.10052152252</v>
+        <v>1335563.436166428</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>23066.2793667919</v>
+        <v>2500487.198474077</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>34055.45821206128</v>
+        <v>3665410.960781728</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>45498.51425628444</v>
+        <v>4768015.313686712</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>56519.40415144667</v>
+        <v>5932939.075994362</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>67540.29404660892</v>
+        <v>7097862.838302011</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>78561.18394177115</v>
+        <v>8262786.600609656</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>89582.07383693337</v>
+        <v>9427710.3629173</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>101025.1298811569</v>
+        <v>10530314.7158222</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>112046.0197763191</v>
+        <v>11695238.47812985</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>123066.9096714813</v>
+        <v>12860162.24043751</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>134087.7995666435</v>
+        <v>14025086.00274516</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>145108.6894618057</v>
+        <v>15190009.76505282</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>156331.9905562664</v>
+        <v>16325315.48329851</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>168812.1012152864</v>
+        <v>17289544.6339021</v>
       </c>
     </row>
   </sheetData>
@@ -27037,13 +27037,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E2" t="n">
         <v>335.0000000000314</v>
@@ -27052,10 +27052,10 @@
         <v>52.99999999996851</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27089,49 +27089,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="4">
@@ -27144,13 +27144,13 @@
         <v>421</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
